--- a/Изучение абсолютной и относительной биодоступности препарата/Пероральное введение субстанции.xlsx
+++ b/Изучение абсолютной и относительной биодоступности препарата/Пероральное введение субстанции.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\OneDrive\Worktable\pyt\Bioavailability\Файлы для прогона\Изучение абсолютной и относительной биодоступности препарата\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11CE742-E7E2-42CB-8352-F159F5ADE154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5C8E417-B907-4C68-9183-B9114F3E4B24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Номер</t>
-  </si>
-  <si>
-    <t>0.5</t>
   </si>
   <si>
     <t>№226-1</t>
@@ -63,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -561,11 +557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3664A3-194B-4525-9EE2-4FEC671BAD87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,8 +573,8 @@
       <c r="B1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
+      <c r="C1" s="2">
+        <v>0.5</v>
       </c>
       <c r="D1" s="2">
         <v>1</v>
@@ -604,7 +600,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
@@ -636,7 +632,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
@@ -668,7 +664,7 @@
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
@@ -700,7 +696,7 @@
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
@@ -732,7 +728,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="12">
         <v>0</v>
@@ -764,7 +760,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12">
         <v>0</v>
